--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3675465.242108772</v>
+        <v>3672921.432601689</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7604674.192993207</v>
+        <v>7604674.192993205</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>244.8448976285501</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>263.7138800015061</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>136.6253230858994</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>22.25920201235136</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>99.73145715885624</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.63579206135121</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>200.6420924161283</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>225.4031397636152</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>38.08911925464449</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>96.92585648020184</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>20.36320110242546</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>220.4747617066648</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.977441756125</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>101.4926604386284</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611525</v>
+        <v>18.47335059662447</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256361</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.298290471598</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.6247095320019</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>11.76284745948067</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>72.57619040703456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>87.27508091634242</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>30.85302310518039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>176.274071128112</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881297</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>101.6969570046975</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,19 +3506,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>18.66234525555543</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.73110067847</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3986,13 +3986,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>801.1705019471533</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>801.1705019471533</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>801.1705019471533</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
         <v>287.4747669672984</v>
@@ -4328,16 +4328,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471533</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>801.1705019471533</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.1689916273217</v>
+        <v>218.0341821179661</v>
       </c>
       <c r="C3" t="n">
-        <v>520.1689916273217</v>
+        <v>43.58115283683904</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2345819660704</v>
+        <v>43.58115283683904</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9971269606149</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
         <v>529.4746963267547</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="W3" t="n">
-        <v>935.7807905978084</v>
+        <v>633.6459810884528</v>
       </c>
       <c r="X3" t="n">
-        <v>727.9292903922756</v>
+        <v>425.79448088292</v>
       </c>
       <c r="Y3" t="n">
-        <v>520.1689916273217</v>
+        <v>218.0341821179661</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.1245950146483</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="C4" t="n">
-        <v>331.1245950146483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>331.1245950146483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329598</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="X4" t="n">
-        <v>331.1245950146483</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.1245950146483</v>
+        <v>101.5373044014854</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.477863438847</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716689</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044908</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044908</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552874</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.787594686703</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="C6" t="n">
-        <v>180.334565405576</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W6" t="n">
-        <v>938.6147306772577</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X6" t="n">
-        <v>730.7632304717249</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y6" t="n">
-        <v>523.0029317067711</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1268433948493</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1268433948493</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U7" t="n">
-        <v>1034.286630003575</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="V7" t="n">
-        <v>1034.286630003575</v>
+        <v>464.5914690453322</v>
       </c>
       <c r="W7" t="n">
-        <v>767.9089734363968</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>539.9194225383794</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>319.1268433948493</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.879446109798</v>
+        <v>981.8557524576229</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.916929169387</v>
+        <v>612.8932355172112</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626361</v>
+        <v>612.8932355172112</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643919</v>
+        <v>227.104982918967</v>
       </c>
       <c r="F8" t="n">
-        <v>62.8770731747843</v>
+        <v>220.1594821697635</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685551</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685551</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685551</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467163</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607405</v>
+        <v>442.1757437607425</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045895</v>
+        <v>795.186282904594</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995222</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209579</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940589</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550191</v>
+        <v>2359.3565305502</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661157</v>
+        <v>2540.564622661166</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342776</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342776</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342776</v>
+        <v>2351.810676439059</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342776</v>
+        <v>2098.229497964629</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342776</v>
+        <v>2098.229497964629</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342776</v>
+        <v>1745.460842694514</v>
       </c>
       <c r="X8" t="n">
-        <v>2187.097002081696</v>
+        <v>1371.995084433435</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.957670105884</v>
+        <v>981.8557524576229</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010804</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199535</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587022</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532467</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801317</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763199</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>69.87120530445618</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685551</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148169</v>
+        <v>298.0857543148182</v>
       </c>
       <c r="L9" t="n">
-        <v>931.8250374996538</v>
+        <v>931.8250374996577</v>
       </c>
       <c r="M9" t="n">
-        <v>1294.891505973954</v>
+        <v>1294.891505973959</v>
       </c>
       <c r="N9" t="n">
-        <v>1681.975908446523</v>
+        <v>1842.133061471869</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.01987145925</v>
+        <v>2174.019871459258</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888874</v>
+        <v>2421.055229888883</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442618</v>
+        <v>2536.272628442628</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342776</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251701</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.81647768535</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751579</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519837</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791635</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586102</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274016</v>
+        <v>388.1345629950719</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994947</v>
+        <v>219.198380067165</v>
       </c>
       <c r="D10" t="n">
-        <v>346.014296287159</v>
+        <v>219.198380067165</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047659</v>
+        <v>219.198380067165</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685551</v>
+        <v>219.198380067165</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685551</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685551</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685551</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380111</v>
+        <v>76.63468308380158</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676561</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368908</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904018</v>
+        <v>823.8653899904039</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.63564010161</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931088</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477359</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477359</v>
+        <v>1349.016368067572</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477359</v>
+        <v>1126.035066541977</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477359</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271472</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234512</v>
+        <v>836.9166930366193</v>
       </c>
       <c r="X10" t="n">
-        <v>863.6779363364944</v>
+        <v>608.927142138602</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.0671186274016</v>
+        <v>388.1345629950719</v>
       </c>
     </row>
     <row r="11">
@@ -5033,43 +5033,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,52 +5273,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1360.39208240939</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1132.402531511373</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>95.584050252739</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>95.584050252739</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>95.584050252739</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792906</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.560501433897</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,49 +6923,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7263,16 +7263,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311994</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>801.6918836311994</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>651.5752442188636</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>503.6621506364705</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,28 +7397,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7430,22 +7430,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7634,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211345</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8535,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084408</v>
+        <v>342.6295957084424</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>161.7749020457983</v>
       </c>
       <c r="O9" t="n">
-        <v>161.7749020457971</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9468079295565</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>213.9468079295564</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>79.97174018228542</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>194.8566322838568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.31058222398278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>65.5498640939303</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>126.7587027673758</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653646.5512971652</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055058</v>
@@ -26326,34 +26326,34 @@
         <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.269705506</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580768</v>
+        <v>390680.0076580795</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606952</v>
+        <v>507909.2320606927</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101713</v>
+        <v>95270.23779101777</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954696</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.567042389</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716751</v>
+        <v>135650.8557716743</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744266</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744264</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744308</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744337</v>
       </c>
-      <c r="H4" t="n">
-        <v>8727.256391744337</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="J4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744269</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744202</v>
-      </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744306</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744202</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744231</v>
+        <v>8727.256391744257</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567881</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-210794.669466779</v>
+        <v>-210794.6694667789</v>
       </c>
       <c r="C6" t="n">
-        <v>469293.311124414</v>
+        <v>469293.3111244141</v>
       </c>
       <c r="D6" t="n">
-        <v>160755.9503656386</v>
+        <v>160755.9503656359</v>
       </c>
       <c r="E6" t="n">
-        <v>149030.2514291592</v>
+        <v>148995.513503726</v>
       </c>
       <c r="F6" t="n">
-        <v>656939.4834898546</v>
+        <v>656904.7455644191</v>
       </c>
       <c r="G6" t="n">
-        <v>656939.4834898545</v>
+        <v>656904.7455644184</v>
       </c>
       <c r="H6" t="n">
-        <v>656939.4834898548</v>
+        <v>656904.7455644191</v>
       </c>
       <c r="I6" t="n">
-        <v>656939.4834898541</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="J6" t="n">
-        <v>587940.3290707404</v>
+        <v>587905.5911453045</v>
       </c>
       <c r="K6" t="n">
-        <v>656939.4834898546</v>
+        <v>656904.7455644187</v>
       </c>
       <c r="L6" t="n">
-        <v>561669.2456988374</v>
+        <v>561634.5077734013</v>
       </c>
       <c r="M6" t="n">
-        <v>524221.5077943849</v>
+        <v>524186.7698689499</v>
       </c>
       <c r="N6" t="n">
-        <v>656939.4834898547</v>
+        <v>656904.7455644186</v>
       </c>
       <c r="O6" t="n">
-        <v>656939.4834898543</v>
+        <v>656904.7455644187</v>
       </c>
       <c r="P6" t="n">
-        <v>656939.4834898545</v>
+        <v>656904.7455644187</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627812</v>
+        <v>933.7024595627832</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856939</v>
+        <v>640.1406900856964</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933028</v>
+        <v>319.647445793305</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788926</v>
+        <v>434.2730407788905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841877</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139547</v>
+        <v>532.567598013952</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841877</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139549</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841877</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139547</v>
+        <v>532.567598013952</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>137.0854724437117</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442039</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>191.1269353842355</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.3858784430496</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>151.9635260020634</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>87.61102903727662</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27600,7 +27600,7 @@
         <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>25.06756297290883</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>187.4310348820948</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.5559612007565</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>154.7691266807178</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>265.895429400252</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>66.04823662992618</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.7563999073556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>310.056499349621</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465062</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164527879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.77644916453778</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>12.37555977878645</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.95994382009286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30226,10 +30226,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688555</v>
+        <v>3.753577726885558</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546664</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972527</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763181</v>
+        <v>477.4691627763192</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354919</v>
+        <v>592.3427171354932</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359927</v>
+        <v>659.0954050359942</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525064</v>
+        <v>669.7602577525079</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307881</v>
+        <v>632.4356192307896</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983011</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542122</v>
+        <v>405.3441667542131</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864746</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140455</v>
+        <v>85.53465245140474</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4312864994415</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508439</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436926</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035136</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026258</v>
+        <v>69.14683309026273</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079422</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502162</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571273</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617157</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152205</v>
+        <v>522.3360580152216</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519074</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947582</v>
+        <v>383.5050724947591</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463697</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204786</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366392</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413392</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6342251841587</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772515</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490119</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.931664102312</v>
+        <v>263.9316641023126</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462345</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.986981004625</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307401</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658772</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942738</v>
+        <v>7.194100917942754</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650316</v>
+        <v>0.09183958618650337</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983578</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>687.0167715190042</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>101.5721424897439</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705664</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313376</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655046</v>
+        <v>356.576302165506</v>
       </c>
       <c r="M8" t="n">
-        <v>428.74917180872</v>
+        <v>428.7491718087215</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559155</v>
+        <v>440.347194155917</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091014</v>
+        <v>402.3374078091028</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430315</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797627</v>
+        <v>183.0384768797636</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234249</v>
+        <v>20.20013907234301</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127551</v>
+        <v>62.90656844127594</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758572</v>
+        <v>186.4616124758579</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1406900856939</v>
+        <v>640.1406900856964</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396974</v>
+        <v>366.7338065396985</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318872</v>
+        <v>552.7692479776866</v>
       </c>
       <c r="O9" t="n">
-        <v>497.0141040532602</v>
+        <v>335.2392020074641</v>
       </c>
       <c r="P9" t="n">
-        <v>249.530665080428</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.3812106603488</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783551</v>
+        <v>24.53548676783578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873293</v>
+        <v>25.6802301787332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513686</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009328</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641526</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254631</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186647</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228558</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462702</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>544.4205270745598</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
